--- a/data(proof)/training.xlsx
+++ b/data(proof)/training.xlsx
@@ -16,75 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>SN</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>Participant</t>
+    <t>Planned Training</t>
   </si>
   <si>
-    <t>Training Institute</t>
+    <t>Actual Training</t>
   </si>
   <si>
-    <t>Cource Name</t>
+    <t>No of participants</t>
   </si>
   <si>
-    <t>Amol Waghmode</t>
+    <t>Training Planned v/s Actual</t>
   </si>
   <si>
-    <t>Varun Rai</t>
-  </si>
-  <si>
-    <t>Kiran Pillai</t>
-  </si>
-  <si>
-    <t>Akash Vengurle</t>
-  </si>
-  <si>
-    <t>Amit Velangi</t>
-  </si>
-  <si>
-    <t>Chandrkant Patil</t>
-  </si>
-  <si>
-    <t>Babasaheb Shelke</t>
-  </si>
-  <si>
-    <t>Girish</t>
-  </si>
-  <si>
-    <t>Instrumentation team</t>
-  </si>
-  <si>
-    <t>SKF India Limited, Pune</t>
-  </si>
-  <si>
-    <t>Asel India Ltd, Pune</t>
-  </si>
-  <si>
-    <t>Larson &amp; Toubro, Pune</t>
-  </si>
-  <si>
-    <t>Advance Training Institute, Sion</t>
-  </si>
-  <si>
-    <t>Root cause analysis of bearings</t>
-  </si>
-  <si>
-    <t>Mechanical seal arrangements</t>
-  </si>
-  <si>
-    <t>LV Switchgear &amp; breaker</t>
-  </si>
-  <si>
-    <t>DP test for cracks identification</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\ \-\ yy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +95,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,164 +399,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42461</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42491</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42552</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42583</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42767</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42795</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f>SUM(B3:B14)</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
